--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Rtn4-Cntnap1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>45.4506055</v>
+        <v>78.25435300000001</v>
       </c>
       <c r="H2">
-        <v>90.901211</v>
+        <v>156.508706</v>
       </c>
       <c r="I2">
-        <v>0.1092442560256595</v>
+        <v>0.1800096451968904</v>
       </c>
       <c r="J2">
-        <v>0.08146511437786728</v>
+        <v>0.1347002616492669</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.3010185</v>
+        <v>0.9848840000000001</v>
       </c>
       <c r="N2">
-        <v>2.602037</v>
+        <v>1.969768</v>
       </c>
       <c r="O2">
-        <v>0.2843699513758341</v>
+        <v>0.3413269466678234</v>
       </c>
       <c r="P2">
-        <v>0.2311148048688678</v>
+        <v>0.3017627779416987</v>
       </c>
       <c r="Q2">
-        <v>59.13207859170176</v>
+        <v>77.07146020005202</v>
       </c>
       <c r="R2">
-        <v>236.528314366807</v>
+        <v>308.2858408002081</v>
       </c>
       <c r="S2">
-        <v>0.03106578377410597</v>
+        <v>0.06144214256581281</v>
       </c>
       <c r="T2">
-        <v>0.01882779401306079</v>
+        <v>0.04064752514475644</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>45.4506055</v>
+        <v>78.25435300000001</v>
       </c>
       <c r="H3">
-        <v>90.901211</v>
+        <v>156.508706</v>
       </c>
       <c r="I3">
-        <v>0.1092442560256595</v>
+        <v>0.1800096451968904</v>
       </c>
       <c r="J3">
-        <v>0.08146511437786728</v>
+        <v>0.1347002616492669</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.223894</v>
       </c>
       <c r="O3">
-        <v>0.08917082456787383</v>
+        <v>0.1413865328522848</v>
       </c>
       <c r="P3">
-        <v>0.1087071486647492</v>
+        <v>0.1874970318058662</v>
       </c>
       <c r="Q3">
-        <v>18.54224112260567</v>
+        <v>31.92501103686067</v>
       </c>
       <c r="R3">
-        <v>111.253446735634</v>
+        <v>191.550066221164</v>
       </c>
       <c r="S3">
-        <v>0.00974140038911198</v>
+        <v>0.02545093961435827</v>
       </c>
       <c r="T3">
-        <v>0.008855840299665617</v>
+        <v>0.02525589924271109</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>45.4506055</v>
+        <v>78.25435300000001</v>
       </c>
       <c r="H4">
-        <v>90.901211</v>
+        <v>156.508706</v>
       </c>
       <c r="I4">
-        <v>0.1092442560256595</v>
+        <v>0.1800096451968904</v>
       </c>
       <c r="J4">
-        <v>0.08146511437786728</v>
+        <v>0.1347002616492669</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2783573333333333</v>
+        <v>0.1211633333333333</v>
       </c>
       <c r="N4">
-        <v>0.835072</v>
+        <v>0.36349</v>
       </c>
       <c r="O4">
-        <v>0.06084191834713099</v>
+        <v>0.04199104728553046</v>
       </c>
       <c r="P4">
-        <v>0.07417169791646128</v>
+        <v>0.05568561990753634</v>
       </c>
       <c r="Q4">
-        <v>12.65150934536533</v>
+        <v>9.481558257323334</v>
       </c>
       <c r="R4">
-        <v>75.909056072192</v>
+        <v>56.88934954394</v>
       </c>
       <c r="S4">
-        <v>0.00664663010500625</v>
+        <v>0.007558793523314184</v>
       </c>
       <c r="T4">
-        <v>0.006042405854365138</v>
+        <v>0.007500867571646771</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>45.4506055</v>
+        <v>78.25435300000001</v>
       </c>
       <c r="H5">
-        <v>90.901211</v>
+        <v>156.508706</v>
       </c>
       <c r="I5">
-        <v>0.1092442560256595</v>
+        <v>0.1800096451968904</v>
       </c>
       <c r="J5">
-        <v>0.08146511437786728</v>
+        <v>0.1347002616492669</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.1656215</v>
+        <v>1.143947</v>
       </c>
       <c r="N5">
-        <v>2.331243</v>
+        <v>2.287894</v>
       </c>
       <c r="O5">
-        <v>0.2547755695077563</v>
+        <v>0.3964527159135661</v>
       </c>
       <c r="P5">
-        <v>0.2070626862903617</v>
+        <v>0.3504987638524663</v>
       </c>
       <c r="Q5">
-        <v>52.97820295881826</v>
+        <v>89.51883235129101</v>
       </c>
       <c r="R5">
-        <v>211.912811835273</v>
+        <v>358.075329405164</v>
       </c>
       <c r="S5">
-        <v>0.02783276754438854</v>
+        <v>0.0713653127289446</v>
       </c>
       <c r="T5">
-        <v>0.01686838542203277</v>
+        <v>0.04721227519867183</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>45.4506055</v>
+        <v>78.25435300000001</v>
       </c>
       <c r="H6">
-        <v>90.901211</v>
+        <v>156.508706</v>
       </c>
       <c r="I6">
-        <v>0.1092442560256595</v>
+        <v>0.1800096451968904</v>
       </c>
       <c r="J6">
-        <v>0.08146511437786728</v>
+        <v>0.1347002616492669</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>1.030093333333333</v>
+        <v>0.08594466666666667</v>
       </c>
       <c r="N6">
-        <v>3.090279999999999</v>
+        <v>0.257834</v>
       </c>
       <c r="O6">
-        <v>0.2251525179023748</v>
+        <v>0.02978546778678219</v>
       </c>
       <c r="P6">
-        <v>0.2744809006136979</v>
+        <v>0.03949942535761569</v>
       </c>
       <c r="Q6">
-        <v>46.81836572151332</v>
+        <v>6.725544283800668</v>
       </c>
       <c r="R6">
-        <v>280.91019432908</v>
+        <v>40.35326570280401</v>
       </c>
       <c r="S6">
-        <v>0.02459661931054892</v>
+        <v>0.00536167148832207</v>
       </c>
       <c r="T6">
-        <v>0.02236061796303492</v>
+        <v>0.005320582930666522</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>45.4506055</v>
+        <v>78.25435300000001</v>
       </c>
       <c r="H7">
-        <v>90.901211</v>
+        <v>156.508706</v>
       </c>
       <c r="I7">
-        <v>0.1092442560256595</v>
+        <v>0.1800096451968904</v>
       </c>
       <c r="J7">
-        <v>0.08146511437786728</v>
+        <v>0.1347002616492669</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.392036</v>
+        <v>0.1415526666666667</v>
       </c>
       <c r="N7">
-        <v>1.176108</v>
+        <v>0.424658</v>
       </c>
       <c r="O7">
-        <v>0.08568921829902994</v>
+        <v>0.04905728949401303</v>
       </c>
       <c r="P7">
-        <v>0.1044627616458622</v>
+        <v>0.06505638113481683</v>
       </c>
       <c r="Q7">
-        <v>17.818273577798</v>
+        <v>11.07711234542467</v>
       </c>
       <c r="R7">
-        <v>106.909641466788</v>
+        <v>66.46267407254801</v>
       </c>
       <c r="S7">
-        <v>0.009361054902497857</v>
+        <v>0.008830785276138422</v>
       </c>
       <c r="T7">
-        <v>0.008510070825708052</v>
+        <v>0.008763111560814258</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>240.777241</v>
       </c>
       <c r="I8">
-        <v>0.1929092786303725</v>
+        <v>0.1846211491216604</v>
       </c>
       <c r="J8">
-        <v>0.2157831041178573</v>
+        <v>0.2072265383236163</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.3010185</v>
+        <v>0.9848840000000001</v>
       </c>
       <c r="N8">
-        <v>2.602037</v>
+        <v>1.969768</v>
       </c>
       <c r="O8">
-        <v>0.2843699513758341</v>
+        <v>0.3413269466678234</v>
       </c>
       <c r="P8">
-        <v>0.2311148048688678</v>
+        <v>0.3017627779416987</v>
       </c>
       <c r="Q8">
-        <v>104.4185483066528</v>
+        <v>79.04588407501467</v>
       </c>
       <c r="R8">
-        <v>626.511289839917</v>
+        <v>474.2753044500881</v>
       </c>
       <c r="S8">
-        <v>0.05485760218406627</v>
+        <v>0.06301617312000125</v>
       </c>
       <c r="T8">
-        <v>0.04987067000219717</v>
+        <v>0.06253325586777633</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>240.777241</v>
       </c>
       <c r="I9">
-        <v>0.1929092786303725</v>
+        <v>0.1846211491216604</v>
       </c>
       <c r="J9">
-        <v>0.2157831041178573</v>
+        <v>0.2072265383236163</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.223894</v>
       </c>
       <c r="O9">
-        <v>0.08917082456787383</v>
+        <v>0.1413865328522848</v>
       </c>
       <c r="P9">
-        <v>0.1087071486647492</v>
+        <v>0.1874970318058662</v>
       </c>
       <c r="Q9">
         <v>32.74286895516155</v>
@@ -1013,10 +1013,10 @@
         <v>294.685820596454</v>
       </c>
       <c r="S9">
-        <v>0.01720187944226404</v>
+        <v>0.02610294416551621</v>
       </c>
       <c r="T9">
-        <v>0.02345716597868098</v>
+        <v>0.03885436084708262</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>240.777241</v>
       </c>
       <c r="I10">
-        <v>0.1929092786303725</v>
+        <v>0.1846211491216604</v>
       </c>
       <c r="J10">
-        <v>0.2157831041178573</v>
+        <v>0.2072265383236163</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2783573333333333</v>
+        <v>0.1211633333333333</v>
       </c>
       <c r="N10">
-        <v>0.835072</v>
+        <v>0.36349</v>
       </c>
       <c r="O10">
-        <v>0.06084191834713099</v>
+        <v>0.04199104728553046</v>
       </c>
       <c r="P10">
-        <v>0.07417169791646128</v>
+        <v>0.05568561990753634</v>
       </c>
       <c r="Q10">
-        <v>22.34070357737244</v>
+        <v>9.724457703454444</v>
       </c>
       <c r="R10">
-        <v>201.066332196352</v>
+        <v>87.52011933109</v>
       </c>
       <c r="S10">
-        <v>0.01173697057883307</v>
+        <v>0.007752435402676611</v>
       </c>
       <c r="T10">
-        <v>0.01600499921410602</v>
+        <v>0.01153953824784341</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>240.777241</v>
       </c>
       <c r="I11">
-        <v>0.1929092786303725</v>
+        <v>0.1846211491216604</v>
       </c>
       <c r="J11">
-        <v>0.2157831041178573</v>
+        <v>0.2072265383236163</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.1656215</v>
+        <v>1.143947</v>
       </c>
       <c r="N11">
-        <v>2.331243</v>
+        <v>2.287894</v>
       </c>
       <c r="O11">
-        <v>0.2547755695077563</v>
+        <v>0.3964527159135661</v>
       </c>
       <c r="P11">
-        <v>0.2070626862903617</v>
+        <v>0.3504987638524663</v>
       </c>
       <c r="Q11">
-        <v>93.5517096067605</v>
+        <v>91.81213417007567</v>
       </c>
       <c r="R11">
-        <v>561.310257640563</v>
+        <v>550.8728050204541</v>
       </c>
       <c r="S11">
-        <v>0.0491485713263836</v>
+        <v>0.07319355598436575</v>
       </c>
       <c r="T11">
-        <v>0.04468062919471635</v>
+        <v>0.07263264551985324</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,40 +1169,40 @@
         <v>240.777241</v>
       </c>
       <c r="I12">
-        <v>0.1929092786303725</v>
+        <v>0.1846211491216604</v>
       </c>
       <c r="J12">
-        <v>0.2157831041178573</v>
+        <v>0.2072265383236163</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>1.030093333333333</v>
+        <v>0.08594466666666667</v>
       </c>
       <c r="N12">
-        <v>3.090279999999999</v>
+        <v>0.257834</v>
       </c>
       <c r="O12">
-        <v>0.2251525179023748</v>
+        <v>0.02978546778678219</v>
       </c>
       <c r="P12">
-        <v>0.2744809006136979</v>
+        <v>0.03949942535761569</v>
       </c>
       <c r="Q12">
-        <v>82.67434359083109</v>
+        <v>6.897839906221556</v>
       </c>
       <c r="R12">
-        <v>744.0690923174799</v>
+        <v>62.080559155994</v>
       </c>
       <c r="S12">
-        <v>0.04343400981035915</v>
+        <v>0.005499027289921928</v>
       </c>
       <c r="T12">
-        <v>0.05922834075548881</v>
+        <v>0.008185329182630768</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>240.777241</v>
       </c>
       <c r="I13">
-        <v>0.1929092786303725</v>
+        <v>0.1846211491216604</v>
       </c>
       <c r="J13">
-        <v>0.2157831041178573</v>
+        <v>0.2072265383236163</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.392036</v>
+        <v>0.1415526666666667</v>
       </c>
       <c r="N13">
-        <v>1.176108</v>
+        <v>0.424658</v>
       </c>
       <c r="O13">
-        <v>0.08568921829902994</v>
+        <v>0.04905728949401303</v>
       </c>
       <c r="P13">
-        <v>0.1044627616458622</v>
+        <v>0.06505638113481683</v>
       </c>
       <c r="Q13">
-        <v>31.46444881755867</v>
+        <v>11.36088684539756</v>
       </c>
       <c r="R13">
-        <v>283.180039358028</v>
+        <v>102.247981608578</v>
       </c>
       <c r="S13">
-        <v>0.01653024528846638</v>
+        <v>0.009057013159178643</v>
       </c>
       <c r="T13">
-        <v>0.02254129897266799</v>
+        <v>0.01348140865842991</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>82.109515</v>
+        <v>73.92583733333333</v>
       </c>
       <c r="H14">
-        <v>246.328545</v>
+        <v>221.777512</v>
       </c>
       <c r="I14">
-        <v>0.1973569500367323</v>
+        <v>0.1700526966117318</v>
       </c>
       <c r="J14">
-        <v>0.2207581491181523</v>
+        <v>0.1908742948416136</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.3010185</v>
+        <v>0.9848840000000001</v>
       </c>
       <c r="N14">
-        <v>2.602037</v>
+        <v>1.969768</v>
       </c>
       <c r="O14">
-        <v>0.2843699513758341</v>
+        <v>0.3413269466678234</v>
       </c>
       <c r="P14">
-        <v>0.2311148048688678</v>
+        <v>0.3017627779416987</v>
       </c>
       <c r="Q14">
-        <v>106.8259980410275</v>
+        <v>72.80837437620268</v>
       </c>
       <c r="R14">
-        <v>640.9559882461651</v>
+        <v>436.850246257216</v>
       </c>
       <c r="S14">
-        <v>0.05612238628562849</v>
+        <v>0.05804356770711214</v>
       </c>
       <c r="T14">
-        <v>0.0510204765566542</v>
+        <v>0.05759875744906819</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>82.109515</v>
+        <v>73.92583733333333</v>
       </c>
       <c r="H15">
-        <v>246.328545</v>
+        <v>221.777512</v>
       </c>
       <c r="I15">
-        <v>0.1973569500367323</v>
+        <v>0.1700526966117318</v>
       </c>
       <c r="J15">
-        <v>0.2207581491181523</v>
+        <v>0.1908742948416136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.223894</v>
       </c>
       <c r="O15">
-        <v>0.08917082456787383</v>
+        <v>0.1413865328522848</v>
       </c>
       <c r="P15">
-        <v>0.1087071486647492</v>
+        <v>0.1874970318058662</v>
       </c>
       <c r="Q15">
-        <v>33.49778091713667</v>
+        <v>30.15912958574756</v>
       </c>
       <c r="R15">
-        <v>301.48002825423</v>
+        <v>271.432166271728</v>
       </c>
       <c r="S15">
-        <v>0.0175984819689761</v>
+        <v>0.02404316117611425</v>
       </c>
       <c r="T15">
-        <v>0.02399798893514186</v>
+        <v>0.03578836373084031</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>82.109515</v>
+        <v>73.92583733333333</v>
       </c>
       <c r="H16">
-        <v>246.328545</v>
+        <v>221.777512</v>
       </c>
       <c r="I16">
-        <v>0.1973569500367323</v>
+        <v>0.1700526966117318</v>
       </c>
       <c r="J16">
-        <v>0.2207581491181523</v>
+        <v>0.1908742948416136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2783573333333333</v>
+        <v>0.1211633333333333</v>
       </c>
       <c r="N16">
-        <v>0.835072</v>
+        <v>0.36349</v>
       </c>
       <c r="O16">
-        <v>0.06084191834713099</v>
+        <v>0.04199104728553046</v>
       </c>
       <c r="P16">
-        <v>0.07417169791646128</v>
+        <v>0.05568561990753634</v>
       </c>
       <c r="Q16">
-        <v>22.85578563669333</v>
+        <v>8.957100870764444</v>
       </c>
       <c r="R16">
-        <v>205.70207073024</v>
+        <v>80.61390783688</v>
       </c>
       <c r="S16">
-        <v>0.01200757543937368</v>
+        <v>0.007140690824455195</v>
       </c>
       <c r="T16">
-        <v>0.01637400674898871</v>
+        <v>0.01062895343266912</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>82.109515</v>
+        <v>73.92583733333333</v>
       </c>
       <c r="H17">
-        <v>246.328545</v>
+        <v>221.777512</v>
       </c>
       <c r="I17">
-        <v>0.1973569500367323</v>
+        <v>0.1700526966117318</v>
       </c>
       <c r="J17">
-        <v>0.2207581491181523</v>
+        <v>0.1908742948416136</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.1656215</v>
+        <v>1.143947</v>
       </c>
       <c r="N17">
-        <v>2.331243</v>
+        <v>2.287894</v>
       </c>
       <c r="O17">
-        <v>0.2547755695077563</v>
+        <v>0.3964527159135661</v>
       </c>
       <c r="P17">
-        <v>0.2070626862903617</v>
+        <v>0.3504987638524663</v>
       </c>
       <c r="Q17">
-        <v>95.70861603857252</v>
+        <v>84.56723983995467</v>
       </c>
       <c r="R17">
-        <v>574.2516962314351</v>
+        <v>507.403439039728</v>
       </c>
       <c r="S17">
-        <v>0.05028172934192227</v>
+        <v>0.06741785342014675</v>
       </c>
       <c r="T17">
-        <v>0.04571077537689287</v>
+        <v>0.06690120439319677</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,46 +1535,46 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>82.109515</v>
+        <v>73.92583733333333</v>
       </c>
       <c r="H18">
-        <v>246.328545</v>
+        <v>221.777512</v>
       </c>
       <c r="I18">
-        <v>0.1973569500367323</v>
+        <v>0.1700526966117318</v>
       </c>
       <c r="J18">
-        <v>0.2207581491181523</v>
+        <v>0.1908742948416136</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M18">
-        <v>1.030093333333333</v>
+        <v>0.08594466666666667</v>
       </c>
       <c r="N18">
-        <v>3.090279999999999</v>
+        <v>0.257834</v>
       </c>
       <c r="O18">
-        <v>0.2251525179023748</v>
+        <v>0.02978546778678219</v>
       </c>
       <c r="P18">
-        <v>0.2744809006136979</v>
+        <v>0.03949942535761569</v>
       </c>
       <c r="Q18">
-        <v>84.58046400473332</v>
+        <v>6.353531447667556</v>
       </c>
       <c r="R18">
-        <v>761.2241760425999</v>
+        <v>57.181783029008</v>
       </c>
       <c r="S18">
-        <v>0.04443541422630345</v>
+        <v>0.005065099116984184</v>
       </c>
       <c r="T18">
-        <v>0.06059389558776347</v>
+        <v>0.007539424961783848</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>82.109515</v>
+        <v>73.92583733333333</v>
       </c>
       <c r="H19">
-        <v>246.328545</v>
+        <v>221.777512</v>
       </c>
       <c r="I19">
-        <v>0.1973569500367323</v>
+        <v>0.1700526966117318</v>
       </c>
       <c r="J19">
-        <v>0.2207581491181523</v>
+        <v>0.1908742948416136</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.392036</v>
+        <v>0.1415526666666667</v>
       </c>
       <c r="N19">
-        <v>1.176108</v>
+        <v>0.424658</v>
       </c>
       <c r="O19">
-        <v>0.08568921829902994</v>
+        <v>0.04905728949401303</v>
       </c>
       <c r="P19">
-        <v>0.1044627616458622</v>
+        <v>0.06505638113481683</v>
       </c>
       <c r="Q19">
-        <v>32.18988582254</v>
+        <v>10.46439941009956</v>
       </c>
       <c r="R19">
-        <v>289.70897240286</v>
+        <v>94.17959469089601</v>
       </c>
       <c r="S19">
-        <v>0.0169113627745283</v>
+        <v>0.008342324366919295</v>
       </c>
       <c r="T19">
-        <v>0.02306100591271125</v>
+        <v>0.01241759087405542</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>86.856657</v>
+        <v>64.0114765</v>
       </c>
       <c r="H20">
-        <v>173.713314</v>
+        <v>128.022953</v>
       </c>
       <c r="I20">
-        <v>0.2087670949695245</v>
+        <v>0.1472465458029419</v>
       </c>
       <c r="J20">
-        <v>0.1556808191913788</v>
+        <v>0.1101838083448968</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.3010185</v>
+        <v>0.9848840000000001</v>
       </c>
       <c r="N20">
-        <v>2.602037</v>
+        <v>1.969768</v>
       </c>
       <c r="O20">
-        <v>0.2843699513758341</v>
+        <v>0.3413269466678234</v>
       </c>
       <c r="P20">
-        <v>0.2311148048688678</v>
+        <v>0.3017627779416987</v>
       </c>
       <c r="Q20">
-        <v>113.0021176051545</v>
+        <v>63.043879021226</v>
       </c>
       <c r="R20">
-        <v>452.008470420618</v>
+        <v>252.175516084904</v>
       </c>
       <c r="S20">
-        <v>0.05936708864535782</v>
+        <v>0.05025921388630197</v>
       </c>
       <c r="T20">
-        <v>0.035980142149241</v>
+        <v>0.03324937209035177</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>86.856657</v>
+        <v>64.0114765</v>
       </c>
       <c r="H21">
-        <v>173.713314</v>
+        <v>128.022953</v>
       </c>
       <c r="I21">
-        <v>0.2087670949695245</v>
+        <v>0.1472465458029419</v>
       </c>
       <c r="J21">
-        <v>0.1556808191913788</v>
+        <v>0.1101838083448968</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.223894</v>
       </c>
       <c r="O21">
-        <v>0.08917082456787383</v>
+        <v>0.1413865328522848</v>
       </c>
       <c r="P21">
-        <v>0.1087071486647492</v>
+        <v>0.1874970318058662</v>
       </c>
       <c r="Q21">
-        <v>35.434447120786</v>
+        <v>26.11442067316367</v>
       </c>
       <c r="R21">
-        <v>212.606682724716</v>
+        <v>156.686524038982</v>
       </c>
       <c r="S21">
-        <v>0.01861593400107213</v>
+        <v>0.02081867858555311</v>
       </c>
       <c r="T21">
-        <v>0.01692361795608716</v>
+        <v>0.02065913701773458</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>86.856657</v>
+        <v>64.0114765</v>
       </c>
       <c r="H22">
-        <v>173.713314</v>
+        <v>128.022953</v>
       </c>
       <c r="I22">
-        <v>0.2087670949695245</v>
+        <v>0.1472465458029419</v>
       </c>
       <c r="J22">
-        <v>0.1556808191913788</v>
+        <v>0.1101838083448968</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2783573333333333</v>
+        <v>0.1211633333333333</v>
       </c>
       <c r="N22">
-        <v>0.835072</v>
+        <v>0.36349</v>
       </c>
       <c r="O22">
-        <v>0.06084191834713099</v>
+        <v>0.04199104728553046</v>
       </c>
       <c r="P22">
-        <v>0.07417169791646128</v>
+        <v>0.05568561990753634</v>
       </c>
       <c r="Q22">
-        <v>24.177187424768</v>
+        <v>7.755843864328333</v>
       </c>
       <c r="R22">
-        <v>145.063124548608</v>
+        <v>46.53506318597</v>
       </c>
       <c r="S22">
-        <v>0.01270179054570355</v>
+        <v>0.00618303666744236</v>
       </c>
       <c r="T22">
-        <v>0.01154711069245018</v>
+        <v>0.006135653671458754</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>86.856657</v>
+        <v>64.0114765</v>
       </c>
       <c r="H23">
-        <v>173.713314</v>
+        <v>128.022953</v>
       </c>
       <c r="I23">
-        <v>0.2087670949695245</v>
+        <v>0.1472465458029419</v>
       </c>
       <c r="J23">
-        <v>0.1556808191913788</v>
+        <v>0.1101838083448968</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.1656215</v>
+        <v>1.143947</v>
       </c>
       <c r="N23">
-        <v>2.331243</v>
+        <v>2.287894</v>
       </c>
       <c r="O23">
-        <v>0.2547755695077563</v>
+        <v>0.3964527159135661</v>
       </c>
       <c r="P23">
-        <v>0.2070626862903617</v>
+        <v>0.3504987638524663</v>
       </c>
       <c r="Q23">
-        <v>101.2419868173255</v>
+        <v>73.22573650774551</v>
       </c>
       <c r="R23">
-        <v>404.967947269302</v>
+        <v>292.902946030982</v>
       </c>
       <c r="S23">
-        <v>0.05318875551534044</v>
+        <v>0.05837629299246763</v>
       </c>
       <c r="T23">
-        <v>0.03223568862565099</v>
+        <v>0.03861928862144338</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>86.856657</v>
+        <v>64.0114765</v>
       </c>
       <c r="H24">
-        <v>173.713314</v>
+        <v>128.022953</v>
       </c>
       <c r="I24">
-        <v>0.2087670949695245</v>
+        <v>0.1472465458029419</v>
       </c>
       <c r="J24">
-        <v>0.1556808191913788</v>
+        <v>0.1101838083448968</v>
       </c>
       <c r="K24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M24">
-        <v>1.030093333333333</v>
+        <v>0.08594466666666667</v>
       </c>
       <c r="N24">
-        <v>3.090279999999999</v>
+        <v>0.257834</v>
       </c>
       <c r="O24">
-        <v>0.2251525179023748</v>
+        <v>0.02978546778678219</v>
       </c>
       <c r="P24">
-        <v>0.2744809006136979</v>
+        <v>0.03949942535761569</v>
       </c>
       <c r="Q24">
-        <v>89.47046333131998</v>
+        <v>5.501445010633667</v>
       </c>
       <c r="R24">
-        <v>536.8227799879199</v>
+        <v>33.008670063802</v>
       </c>
       <c r="S24">
-        <v>0.04700443708755263</v>
+        <v>0.004385807246728476</v>
       </c>
       <c r="T24">
-        <v>0.04273141145992792</v>
+        <v>0.004352197113337084</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>86.856657</v>
+        <v>64.0114765</v>
       </c>
       <c r="H25">
-        <v>173.713314</v>
+        <v>128.022953</v>
       </c>
       <c r="I25">
-        <v>0.2087670949695245</v>
+        <v>0.1472465458029419</v>
       </c>
       <c r="J25">
-        <v>0.1556808191913788</v>
+        <v>0.1101838083448968</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.392036</v>
+        <v>0.1415526666666667</v>
       </c>
       <c r="N25">
-        <v>1.176108</v>
+        <v>0.424658</v>
       </c>
       <c r="O25">
-        <v>0.08568921829902994</v>
+        <v>0.04905728949401303</v>
       </c>
       <c r="P25">
-        <v>0.1044627616458622</v>
+        <v>0.06505638113481683</v>
       </c>
       <c r="Q25">
-        <v>34.050936383652</v>
+        <v>9.060995195845669</v>
       </c>
       <c r="R25">
-        <v>204.305618301912</v>
+        <v>54.365971175074</v>
       </c>
       <c r="S25">
-        <v>0.0178890891744979</v>
+        <v>0.007223516424448371</v>
       </c>
       <c r="T25">
-        <v>0.01626284830802157</v>
+        <v>0.007168159830571217</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>43.48344933333334</v>
+        <v>56.48610166666666</v>
       </c>
       <c r="H26">
-        <v>130.450348</v>
+        <v>169.458305</v>
       </c>
       <c r="I26">
-        <v>0.1045160349260795</v>
+        <v>0.1299358148111217</v>
       </c>
       <c r="J26">
-        <v>0.1169088112638301</v>
+        <v>0.1458454203955994</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.3010185</v>
+        <v>0.9848840000000001</v>
       </c>
       <c r="N26">
-        <v>2.602037</v>
+        <v>1.969768</v>
       </c>
       <c r="O26">
-        <v>0.2843699513758341</v>
+        <v>0.3413269466678234</v>
       </c>
       <c r="P26">
-        <v>0.2311148048688678</v>
+        <v>0.3017627779416987</v>
       </c>
       <c r="Q26">
-        <v>56.57277202647934</v>
+        <v>55.63225775387333</v>
       </c>
       <c r="R26">
-        <v>339.4366321588761</v>
+        <v>333.79354652324</v>
       </c>
       <c r="S26">
-        <v>0.02972121976992421</v>
+        <v>0.0443505949322759</v>
       </c>
       <c r="T26">
-        <v>0.02701935710269138</v>
+        <v>0.04401071920865095</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>43.48344933333334</v>
+        <v>56.48610166666666</v>
       </c>
       <c r="H27">
-        <v>130.450348</v>
+        <v>169.458305</v>
       </c>
       <c r="I27">
-        <v>0.1045160349260795</v>
+        <v>0.1299358148111217</v>
       </c>
       <c r="J27">
-        <v>0.1169088112638301</v>
+        <v>0.1458454203955994</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.223894</v>
       </c>
       <c r="O27">
-        <v>0.08917082456787383</v>
+        <v>0.1413865328522848</v>
       </c>
       <c r="P27">
-        <v>0.1087071486647492</v>
+        <v>0.1874970318058662</v>
       </c>
       <c r="Q27">
-        <v>17.73971091279023</v>
+        <v>23.04433363774111</v>
       </c>
       <c r="R27">
-        <v>159.657398215112</v>
+        <v>207.39900273967</v>
       </c>
       <c r="S27">
-        <v>0.009319781014923209</v>
+        <v>0.01837117434948105</v>
       </c>
       <c r="T27">
-        <v>0.01270882352627628</v>
+        <v>0.02734558342665362</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>43.48344933333334</v>
+        <v>56.48610166666666</v>
       </c>
       <c r="H28">
-        <v>130.450348</v>
+        <v>169.458305</v>
       </c>
       <c r="I28">
-        <v>0.1045160349260795</v>
+        <v>0.1299358148111217</v>
       </c>
       <c r="J28">
-        <v>0.1169088112638301</v>
+        <v>0.1458454203955994</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.2783573333333333</v>
+        <v>0.1211633333333333</v>
       </c>
       <c r="N28">
-        <v>0.835072</v>
+        <v>0.36349</v>
       </c>
       <c r="O28">
-        <v>0.06084191834713099</v>
+        <v>0.04199104728553046</v>
       </c>
       <c r="P28">
-        <v>0.07417169791646128</v>
+        <v>0.05568561990753634</v>
       </c>
       <c r="Q28">
-        <v>12.10393700056178</v>
+        <v>6.844044364938888</v>
       </c>
       <c r="R28">
-        <v>108.935433005056</v>
+        <v>61.59639928444999</v>
       </c>
       <c r="S28">
-        <v>0.006358956062938421</v>
+        <v>0.005456140943817738</v>
       </c>
       <c r="T28">
-        <v>0.008671325032833388</v>
+        <v>0.008121492645404196</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>43.48344933333334</v>
+        <v>56.48610166666666</v>
       </c>
       <c r="H29">
-        <v>130.450348</v>
+        <v>169.458305</v>
       </c>
       <c r="I29">
-        <v>0.1045160349260795</v>
+        <v>0.1299358148111217</v>
       </c>
       <c r="J29">
-        <v>0.1169088112638301</v>
+        <v>0.1458454203955994</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.1656215</v>
+        <v>1.143947</v>
       </c>
       <c r="N29">
-        <v>2.331243</v>
+        <v>2.287894</v>
       </c>
       <c r="O29">
-        <v>0.2547755695077563</v>
+        <v>0.3964527159135661</v>
       </c>
       <c r="P29">
-        <v>0.2070626862903617</v>
+        <v>0.3504987638524663</v>
       </c>
       <c r="Q29">
-        <v>50.68524343709401</v>
+        <v>64.61710654327833</v>
       </c>
       <c r="R29">
-        <v>304.1114606225641</v>
+        <v>387.70263925967</v>
       </c>
       <c r="S29">
-        <v>0.02662813232098445</v>
+        <v>0.05151340667631134</v>
       </c>
       <c r="T29">
-        <v>0.02420745251130155</v>
+        <v>0.05111863956220086</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>43.48344933333334</v>
+        <v>56.48610166666666</v>
       </c>
       <c r="H30">
-        <v>130.450348</v>
+        <v>169.458305</v>
       </c>
       <c r="I30">
-        <v>0.1045160349260795</v>
+        <v>0.1299358148111217</v>
       </c>
       <c r="J30">
-        <v>0.1169088112638301</v>
+        <v>0.1458454203955994</v>
       </c>
       <c r="K30">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M30">
-        <v>1.030093333333333</v>
+        <v>0.08594466666666667</v>
       </c>
       <c r="N30">
-        <v>3.090279999999999</v>
+        <v>0.257834</v>
       </c>
       <c r="O30">
-        <v>0.2251525179023748</v>
+        <v>0.02978546778678219</v>
       </c>
       <c r="P30">
-        <v>0.2744809006136979</v>
+        <v>0.03949942535761569</v>
       </c>
       <c r="Q30">
-        <v>44.79201126860444</v>
+        <v>4.854679179041111</v>
       </c>
       <c r="R30">
-        <v>403.12810141744</v>
+        <v>43.69211261137</v>
       </c>
       <c r="S30">
-        <v>0.02353204842477934</v>
+        <v>0.003870199026405961</v>
       </c>
       <c r="T30">
-        <v>0.0320892358053729</v>
+        <v>0.00576081029666606</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>43.48344933333334</v>
+        <v>56.48610166666666</v>
       </c>
       <c r="H31">
-        <v>130.450348</v>
+        <v>169.458305</v>
       </c>
       <c r="I31">
-        <v>0.1045160349260795</v>
+        <v>0.1299358148111217</v>
       </c>
       <c r="J31">
-        <v>0.1169088112638301</v>
+        <v>0.1458454203955994</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.392036</v>
+        <v>0.1415526666666667</v>
       </c>
       <c r="N31">
-        <v>1.176108</v>
+        <v>0.424658</v>
       </c>
       <c r="O31">
-        <v>0.08568921829902994</v>
+        <v>0.04905728949401303</v>
       </c>
       <c r="P31">
-        <v>0.1044627616458622</v>
+        <v>0.06505638113481683</v>
       </c>
       <c r="Q31">
-        <v>17.04707754284267</v>
+        <v>7.995758320521111</v>
       </c>
       <c r="R31">
-        <v>153.423697885584</v>
+        <v>71.96182488469</v>
       </c>
       <c r="S31">
-        <v>0.008955897332529864</v>
+        <v>0.006374298882829661</v>
       </c>
       <c r="T31">
-        <v>0.01221261728535457</v>
+        <v>0.009488175256023702</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>77.88641600000001</v>
+        <v>81.78626233333334</v>
       </c>
       <c r="H32">
-        <v>233.659248</v>
+        <v>245.358787</v>
       </c>
       <c r="I32">
-        <v>0.1872063854116316</v>
+        <v>0.1881341484556537</v>
       </c>
       <c r="J32">
-        <v>0.2094040019309144</v>
+        <v>0.2111696764450071</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.3010185</v>
+        <v>0.9848840000000001</v>
       </c>
       <c r="N32">
-        <v>2.602037</v>
+        <v>1.969768</v>
       </c>
       <c r="O32">
-        <v>0.2843699513758341</v>
+        <v>0.3413269466678234</v>
       </c>
       <c r="P32">
-        <v>0.2311148048688678</v>
+        <v>0.3017627779416987</v>
       </c>
       <c r="Q32">
-        <v>101.331668114696</v>
+        <v>80.54998119190267</v>
       </c>
       <c r="R32">
-        <v>607.9900086881762</v>
+        <v>483.299887151416</v>
       </c>
       <c r="S32">
-        <v>0.05323587071675135</v>
+        <v>0.0642152544563193</v>
       </c>
       <c r="T32">
-        <v>0.0483963650450233</v>
+        <v>0.06372314818109505</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>77.88641600000001</v>
+        <v>81.78626233333334</v>
       </c>
       <c r="H33">
-        <v>233.659248</v>
+        <v>245.358787</v>
       </c>
       <c r="I33">
-        <v>0.1872063854116316</v>
+        <v>0.1881341484556537</v>
       </c>
       <c r="J33">
-        <v>0.2094040019309144</v>
+        <v>0.2111696764450071</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.223894</v>
       </c>
       <c r="O33">
-        <v>0.08917082456787383</v>
+        <v>0.1413865328522848</v>
       </c>
       <c r="P33">
-        <v>0.1087071486647492</v>
+        <v>0.1874970318058662</v>
       </c>
       <c r="Q33">
-        <v>31.77490574130134</v>
+        <v>33.3659052507309</v>
       </c>
       <c r="R33">
-        <v>285.9741516717121</v>
+        <v>300.293147256578</v>
       </c>
       <c r="S33">
-        <v>0.01669334775152638</v>
+        <v>0.02659963496126192</v>
       </c>
       <c r="T33">
-        <v>0.02276371196889735</v>
+        <v>0.03959368754084396</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>77.88641600000001</v>
+        <v>81.78626233333334</v>
       </c>
       <c r="H34">
-        <v>233.659248</v>
+        <v>245.358787</v>
       </c>
       <c r="I34">
-        <v>0.1872063854116316</v>
+        <v>0.1881341484556537</v>
       </c>
       <c r="J34">
-        <v>0.2094040019309144</v>
+        <v>0.2111696764450071</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.2783573333333333</v>
+        <v>0.1211633333333333</v>
       </c>
       <c r="N34">
-        <v>0.835072</v>
+        <v>0.36349</v>
       </c>
       <c r="O34">
-        <v>0.06084191834713099</v>
+        <v>0.04199104728553046</v>
       </c>
       <c r="P34">
-        <v>0.07417169791646128</v>
+        <v>0.05568561990753634</v>
       </c>
       <c r="Q34">
-        <v>21.68025506065067</v>
+        <v>9.909496165181112</v>
       </c>
       <c r="R34">
-        <v>195.122295545856</v>
+        <v>89.18546548662999</v>
       </c>
       <c r="S34">
-        <v>0.01138999561527603</v>
+        <v>0.007899949923824362</v>
       </c>
       <c r="T34">
-        <v>0.01553185037371786</v>
+        <v>0.0117591143385141</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>77.88641600000001</v>
+        <v>81.78626233333334</v>
       </c>
       <c r="H35">
-        <v>233.659248</v>
+        <v>245.358787</v>
       </c>
       <c r="I35">
-        <v>0.1872063854116316</v>
+        <v>0.1881341484556537</v>
       </c>
       <c r="J35">
-        <v>0.2094040019309144</v>
+        <v>0.2111696764450071</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.1656215</v>
+        <v>1.143947</v>
       </c>
       <c r="N35">
-        <v>2.331243</v>
+        <v>2.287894</v>
       </c>
       <c r="O35">
-        <v>0.2547755695077563</v>
+        <v>0.3964527159135661</v>
       </c>
       <c r="P35">
-        <v>0.2070626862903617</v>
+        <v>0.3504987638524663</v>
       </c>
       <c r="Q35">
-        <v>90.78608104754402</v>
+        <v>93.55914943742968</v>
       </c>
       <c r="R35">
-        <v>544.7164862852642</v>
+        <v>561.354896624578</v>
       </c>
       <c r="S35">
-        <v>0.04769561345873697</v>
+        <v>0.07458629411132996</v>
       </c>
       <c r="T35">
-        <v>0.04335975515976724</v>
+        <v>0.07401471055710027</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,46 +2651,46 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>77.88641600000001</v>
+        <v>81.78626233333334</v>
       </c>
       <c r="H36">
-        <v>233.659248</v>
+        <v>245.358787</v>
       </c>
       <c r="I36">
-        <v>0.1872063854116316</v>
+        <v>0.1881341484556537</v>
       </c>
       <c r="J36">
-        <v>0.2094040019309144</v>
+        <v>0.2111696764450071</v>
       </c>
       <c r="K36">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M36">
-        <v>1.030093333333333</v>
+        <v>0.08594466666666667</v>
       </c>
       <c r="N36">
-        <v>3.090279999999999</v>
+        <v>0.257834</v>
       </c>
       <c r="O36">
-        <v>0.2251525179023748</v>
+        <v>0.02978546778678219</v>
       </c>
       <c r="P36">
-        <v>0.2744809006136979</v>
+        <v>0.03949942535761569</v>
       </c>
       <c r="Q36">
-        <v>80.23027787882666</v>
+        <v>7.02909305415089</v>
       </c>
       <c r="R36">
-        <v>722.07250090944</v>
+        <v>63.261837487358</v>
       </c>
       <c r="S36">
-        <v>0.04214998904283127</v>
+        <v>0.005603663618419573</v>
       </c>
       <c r="T36">
-        <v>0.05747739904210993</v>
+        <v>0.008341080872531416</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>77.88641600000001</v>
+        <v>81.78626233333334</v>
       </c>
       <c r="H37">
-        <v>233.659248</v>
+        <v>245.358787</v>
       </c>
       <c r="I37">
-        <v>0.1872063854116316</v>
+        <v>0.1881341484556537</v>
       </c>
       <c r="J37">
-        <v>0.2094040019309144</v>
+        <v>0.2111696764450071</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>0.392036</v>
+        <v>0.1415526666666667</v>
       </c>
       <c r="N37">
-        <v>1.176108</v>
+        <v>0.424658</v>
       </c>
       <c r="O37">
-        <v>0.08568921829902994</v>
+        <v>0.04905728949401303</v>
       </c>
       <c r="P37">
-        <v>0.1044627616458622</v>
+        <v>0.06505638113481683</v>
       </c>
       <c r="Q37">
-        <v>30.53427898297601</v>
+        <v>11.57706352998289</v>
       </c>
       <c r="R37">
-        <v>274.808510846784</v>
+        <v>104.193571769846</v>
       </c>
       <c r="S37">
-        <v>0.01604156882650964</v>
+        <v>0.009229351384498629</v>
       </c>
       <c r="T37">
-        <v>0.02187492034139878</v>
+        <v>0.01373793495492234</v>
       </c>
     </row>
   </sheetData>
